--- a/biology/Zoologie/Abdarainurus/Abdarainurus.xlsx
+++ b/biology/Zoologie/Abdarainurus/Abdarainurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdarainurus barsboldi
 Abdarainurus (qui signifie « queue d'Abdrant Nuru » d'après la localité holotype) est un genre fossile de dinosaures titanosaures assigné aux Somphospondyli de la formation Alagteeg en Mongolie. Le type et la seule espèce est Abdarainurus barsboldi. Abdarainurus n'est pas connu à partir de nombreux restes ; il est seulement connu à partir de huit vertèbres caudales antérieures et d'une vertèbre caudale médiane et de plusieurs chevrons.
@@ -512,9 +524,11 @@
           <t>Découverte et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype, PIN 5669/1, a été découvert en 1970 à Abdrant Nuru, d'où le nom du genre, lors d'une expédition paléontologique conjointe soviéto-mongole et a été dégagé par le vice-président Tverdokhlebov de l'Université d'État de Saratov. Les fossiles n'ont pas été préparés jusqu'en 2000 au moins, lorsque le paléontologue Andrei Podlesnow a révélé qu'ils appartenaient probablement à un nouveau genre de sauropode. L'espèce Abdarainurus barsboldi a été nommée en février 2020 par Averianov et Lopatin[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype, PIN 5669/1, a été découvert en 1970 à Abdrant Nuru, d'où le nom du genre, lors d'une expédition paléontologique conjointe soviéto-mongole et a été dégagé par le vice-président Tverdokhlebov de l'Université d'État de Saratov. Les fossiles n'ont pas été préparés jusqu'en 2000 au moins, lorsque le paléontologue Andrei Podlesnow a révélé qu'ils appartenaient probablement à un nouveau genre de sauropode. L'espèce Abdarainurus barsboldi a été nommée en février 2020 par Averianov et Lopatin,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abdarainurus a été découvert dans la localité d'Abdrant Nuru de la formation d'Alagteeg (qui peut être la même unité que la formation sus-jacente de Djadochta[3] et a coexisté avec l'ankylosaure Pinacosaurus sp., des tortues et des dinosaures indéterminés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdarainurus a été découvert dans la localité d'Abdrant Nuru de la formation d'Alagteeg (qui peut être la même unité que la formation sus-jacente de Djadochta et a coexisté avec l'ankylosaure Pinacosaurus sp., des tortues et des dinosaures indéterminés.
 </t>
         </is>
       </c>
